--- a/Генерация датасетов/dataset_complex_1.xlsx
+++ b/Генерация датасетов/dataset_complex_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Оля\Documents\АНДРЕЙ\РЕПОЗИТОРИИ\Regression_of_complex_numbers\Генерация датасетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C5435-9755-4763-8BAA-D5F070278181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044AFA3-6C34-4004-B5FE-8CF1A028EA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
